--- a/output/5Y_P17_KFSDIV.xlsx
+++ b/output/5Y_P17_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-32</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-31</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-30</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-29</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-28</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-27</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-26</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-25</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-24</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-23</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-22</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-21</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-20</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.962</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2659</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.4103</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.3976</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.9013</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.3527</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8804</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6268</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3636</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8711</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1252</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1934</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1176</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3311</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3637</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6447</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-4</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.486</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-3</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.1958</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4264</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17.107</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.8894</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4004</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3877</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6367</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.0061</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.835</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.4216</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.2404</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.382</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>11.9583</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.2036</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.9136</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.4338</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.9657</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3568</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.2487</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3991</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.5985</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.6955</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3398</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.8469</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.129</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.716</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.4613</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.6545</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.2345</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.1636</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.8145</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-32</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-31</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-30</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-29</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-28</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-27</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-26</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-25</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-24</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-23</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-22</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-21</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-20</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.962</v>
@@ -5091,10 +5094,10 @@
         <v>143329.3261</v>
       </c>
       <c r="K15" s="1">
-        <v>119746.3536</v>
+        <v>119756.9375</v>
       </c>
       <c r="L15" s="1">
-        <v>13.3911</v>
+        <v>13.3922</v>
       </c>
       <c r="M15" s="1">
         <v>0.5</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2659</v>
@@ -5144,10 +5147,10 @@
         <v>140284.5208</v>
       </c>
       <c r="K16" s="1">
-        <v>135205.6771</v>
+        <v>135216.2611</v>
       </c>
       <c r="L16" s="1">
-        <v>13.4569</v>
+        <v>13.458</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.4103</v>
@@ -5197,10 +5200,10 @@
         <v>151941.9255</v>
       </c>
       <c r="K17" s="1">
-        <v>162321.0565</v>
+        <v>162331.6405</v>
       </c>
       <c r="L17" s="1">
-        <v>13.2469</v>
+        <v>13.2478</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.3976</v>
@@ -5250,10 +5253,10 @@
         <v>161744.8205</v>
       </c>
       <c r="K18" s="1">
-        <v>170588.3692</v>
+        <v>170598.9532</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2051</v>
+        <v>13.206</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.9013</v>
@@ -5303,10 +5306,10 @@
         <v>184424.3299</v>
       </c>
       <c r="K19" s="1">
-        <v>180793.1777</v>
+        <v>180803.7616</v>
       </c>
       <c r="L19" s="1">
-        <v>13.1583</v>
+        <v>13.1591</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.3527</v>
@@ -5356,10 +5359,10 @@
         <v>200709.9182</v>
       </c>
       <c r="K20" s="1">
-        <v>183898.5915</v>
+        <v>183909.1755</v>
       </c>
       <c r="L20" s="1">
-        <v>13.1544</v>
+        <v>13.1551</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8804</v>
@@ -5409,10 +5412,10 @@
         <v>218203.2353</v>
       </c>
       <c r="K21" s="1">
-        <v>187615.4461</v>
+        <v>187626.03</v>
       </c>
       <c r="L21" s="1">
-        <v>13.1588</v>
+        <v>13.1595</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6268</v>
@@ -5462,10 +5465,10 @@
         <v>245365.3663</v>
       </c>
       <c r="K22" s="1">
-        <v>190117.268</v>
+        <v>190127.8519</v>
       </c>
       <c r="L22" s="1">
-        <v>13.1681</v>
+        <v>13.1688</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3636</v>
@@ -5515,10 +5518,10 @@
         <v>265943.338</v>
       </c>
       <c r="K23" s="1">
-        <v>189358.1344</v>
+        <v>189371.7484</v>
       </c>
       <c r="L23" s="1">
-        <v>13.1627</v>
+        <v>13.1637</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8711</v>
@@ -5568,10 +5571,10 @@
         <v>254571.6471</v>
       </c>
       <c r="K24" s="1">
-        <v>188777.8444</v>
+        <v>188793.7767</v>
       </c>
       <c r="L24" s="1">
-        <v>13.1569</v>
+        <v>13.158</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1252</v>
@@ -5621,10 +5624,10 @@
         <v>275115.9939</v>
       </c>
       <c r="K25" s="1">
-        <v>220275.3085</v>
+        <v>220291.2408</v>
       </c>
       <c r="L25" s="1">
-        <v>13.2581</v>
+        <v>13.259</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1934</v>
@@ -5674,10 +5677,10 @@
         <v>286250.4947</v>
       </c>
       <c r="K26" s="1">
-        <v>226085.0851</v>
+        <v>226101.0173</v>
       </c>
       <c r="L26" s="1">
-        <v>13.2797</v>
+        <v>13.2806</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1176</v>
@@ -5727,10 +5730,10 @@
         <v>294880.7634</v>
       </c>
       <c r="K27" s="1">
-        <v>234962.8486</v>
+        <v>234978.7808</v>
       </c>
       <c r="L27" s="1">
-        <v>13.313</v>
+        <v>13.3139</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3311</v>
@@ -5780,10 +5783,10 @@
         <v>335124.7192</v>
       </c>
       <c r="K28" s="1">
-        <v>246342.5748</v>
+        <v>246358.5071</v>
       </c>
       <c r="L28" s="1">
-        <v>13.3493</v>
+        <v>13.3502</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3637</v>
@@ -5833,10 +5836,10 @@
         <v>345699.9983</v>
       </c>
       <c r="K29" s="1">
-        <v>233945.729</v>
+        <v>234011.2106</v>
       </c>
       <c r="L29" s="1">
-        <v>13.2573</v>
+        <v>13.261</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6447</v>
@@ -5886,10 +5889,10 @@
         <v>342557.9112</v>
       </c>
       <c r="K30" s="1">
-        <v>243408.2521</v>
+        <v>243473.7336</v>
       </c>
       <c r="L30" s="1">
-        <v>13.3292</v>
+        <v>13.3328</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-4</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.486</v>
@@ -5939,10 +5942,10 @@
         <v>385559.8292</v>
       </c>
       <c r="K31" s="1">
-        <v>266605.1729</v>
+        <v>266670.6544</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4363</v>
+        <v>13.4396</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-3</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.1958</v>
@@ -5992,10 +5995,10 @@
         <v>409310.7189</v>
       </c>
       <c r="K32" s="1">
-        <v>259919.0436</v>
+        <v>260011.2404</v>
       </c>
       <c r="L32" s="1">
-        <v>13.3902</v>
+        <v>13.3949</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4264</v>
@@ -6045,10 +6048,10 @@
         <v>423725.7554</v>
       </c>
       <c r="K33" s="1">
-        <v>256153.1164</v>
+        <v>256260.3507</v>
       </c>
       <c r="L33" s="1">
-        <v>13.3558</v>
+        <v>13.3614</v>
       </c>
       <c r="M33" s="1">
         <v>0.75</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17.107</v>
@@ -6098,10 +6101,10 @@
         <v>459907.1443</v>
       </c>
       <c r="K34" s="1">
-        <v>261760.4626</v>
+        <v>261867.6969</v>
       </c>
       <c r="L34" s="1">
-        <v>13.41</v>
+        <v>13.4155</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.8894</v>
@@ -6151,10 +6154,10 @@
         <v>465708.8874</v>
       </c>
       <c r="K35" s="1">
-        <v>258489.5346</v>
+        <v>258609.8402</v>
       </c>
       <c r="L35" s="1">
-        <v>13.3732</v>
+        <v>13.3794</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4004</v>
@@ -6204,10 +6207,10 @@
         <v>483204.424</v>
       </c>
       <c r="K36" s="1">
-        <v>272744.7341</v>
+        <v>272865.0397</v>
       </c>
       <c r="L36" s="1">
-        <v>13.5214</v>
+        <v>13.5274</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3877</v>
@@ -6257,10 +6260,10 @@
         <v>471512.2562</v>
       </c>
       <c r="K37" s="1">
-        <v>292667.9997</v>
+        <v>292788.3053</v>
       </c>
       <c r="L37" s="1">
-        <v>13.6865</v>
+        <v>13.6921</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6367</v>
@@ -6310,10 +6313,10 @@
         <v>463815.499</v>
       </c>
       <c r="K38" s="1">
-        <v>324407.3196</v>
+        <v>324527.6252</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8386</v>
+        <v>13.8437</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.0061</v>
@@ -6363,10 +6366,10 @@
         <v>432485.9948</v>
       </c>
       <c r="K39" s="1">
-        <v>352087.8733</v>
+        <v>352208.1789</v>
       </c>
       <c r="L39" s="1">
-        <v>13.9002</v>
+        <v>13.905</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.835</v>
@@ -6416,10 +6419,10 @@
         <v>477895.5055</v>
       </c>
       <c r="K40" s="1">
-        <v>403512.3604</v>
+        <v>403632.666</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7832</v>
+        <v>13.7873</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.4216</v>
@@ -6469,10 +6472,10 @@
         <v>504433.4962</v>
       </c>
       <c r="K41" s="1">
-        <v>389238.5549</v>
+        <v>389415.9034</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7803</v>
+        <v>13.7866</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.2404</v>
@@ -6522,10 +6525,10 @@
         <v>481669.8922</v>
       </c>
       <c r="K42" s="1">
-        <v>382674.3536</v>
+        <v>382877.9126</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7694</v>
+        <v>13.7767</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.382</v>
@@ -6575,10 +6578,10 @@
         <v>474921.743</v>
       </c>
       <c r="K43" s="1">
-        <v>425609.4794</v>
+        <v>425813.0384</v>
       </c>
       <c r="L43" s="1">
-        <v>13.717</v>
+        <v>13.7235</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>11.9583</v>
@@ -6628,10 +6631,10 @@
         <v>470404.664</v>
       </c>
       <c r="K44" s="1">
-        <v>462337.9427</v>
+        <v>462541.5017</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6029</v>
+        <v>13.6089</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.2036</v>
@@ -6681,10 +6684,10 @@
         <v>489127.0686</v>
       </c>
       <c r="K45" s="1">
-        <v>486806.001</v>
+        <v>487009.5599</v>
       </c>
       <c r="L45" s="1">
-        <v>13.511</v>
+        <v>13.5167</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.9136</v>
@@ -6734,10 +6737,10 @@
         <v>537692.9503</v>
       </c>
       <c r="K46" s="1">
-        <v>487990.5207</v>
+        <v>488194.0796</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5076</v>
+        <v>13.5132</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.4338</v>
@@ -6787,10 +6790,10 @@
         <v>565818.2316000001</v>
       </c>
       <c r="K47" s="1">
-        <v>472328.2307</v>
+        <v>472594.3687</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5273</v>
+        <v>13.5349</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.9657</v>
@@ -6840,10 +6843,10 @@
         <v>559791.708</v>
       </c>
       <c r="K48" s="1">
-        <v>464170.3439</v>
+        <v>464469.0874</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5284</v>
+        <v>13.5372</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3568</v>
@@ -6893,10 +6896,10 @@
         <v>593127.6994</v>
       </c>
       <c r="K49" s="1">
-        <v>490301.2568</v>
+        <v>490600.0003</v>
       </c>
       <c r="L49" s="1">
-        <v>13.4987</v>
+        <v>13.5069</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.2487</v>
@@ -6946,10 +6949,10 @@
         <v>599242.3572</v>
       </c>
       <c r="K50" s="1">
-        <v>486108.0003</v>
+        <v>486423.5061</v>
       </c>
       <c r="L50" s="1">
-        <v>13.4997</v>
+        <v>13.5085</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3991</v>
@@ -6999,10 +7002,10 @@
         <v>614749.2378</v>
       </c>
       <c r="K51" s="1">
-        <v>500049.0007</v>
+        <v>500364.5064</v>
       </c>
       <c r="L51" s="1">
-        <v>13.4934</v>
+        <v>13.5019</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.5985</v>
@@ -7052,10 +7055,10 @@
         <v>645513.4044999999</v>
       </c>
       <c r="K52" s="1">
-        <v>504504.2485</v>
+        <v>504819.7543</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4928</v>
+        <v>13.5012</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.6955</v>
@@ -7105,10 +7108,10 @@
         <v>659140.8223999999</v>
       </c>
       <c r="K53" s="1">
-        <v>507073.7528</v>
+        <v>507389.2585</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4934</v>
+        <v>13.5018</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3398</v>
@@ -7158,10 +7161,10 @@
         <v>655609.4131</v>
       </c>
       <c r="K54" s="1">
-        <v>513461.5849</v>
+        <v>513777.0907</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4962</v>
+        <v>13.5045</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.8469</v>
@@ -7211,10 +7214,10 @@
         <v>656204.4804999999</v>
       </c>
       <c r="K55" s="1">
-        <v>537061.7696999999</v>
+        <v>537377.2755</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4905</v>
+        <v>13.4984</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.129</v>
@@ -7264,10 +7267,10 @@
         <v>677942.0283</v>
       </c>
       <c r="K56" s="1">
-        <v>566763.1083</v>
+        <v>567078.6139999999</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4566</v>
+        <v>13.4641</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.716</v>
@@ -7317,10 +7320,10 @@
         <v>670643.6851999999</v>
       </c>
       <c r="K57" s="1">
-        <v>564899.5124</v>
+        <v>565222.4695</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4577</v>
+        <v>13.4653</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.4613</v>
@@ -7370,10 +7373,10 @@
         <v>680650.6164000001</v>
       </c>
       <c r="K58" s="1">
-        <v>592307.3448</v>
+        <v>592630.302</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4227</v>
+        <v>13.4301</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.6545</v>
@@ -7423,10 +7426,10 @@
         <v>699402.1254</v>
       </c>
       <c r="K59" s="1">
-        <v>613609.5980999999</v>
+        <v>613932.5551999999</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3879</v>
+        <v>13.3949</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.2345</v>
@@ -7476,10 +7479,10 @@
         <v>690145.5625999999</v>
       </c>
       <c r="K60" s="1">
-        <v>614777.6274999999</v>
+        <v>615100.5847</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3865</v>
+        <v>13.3935</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.1636</v>
@@ -7529,10 +7532,10 @@
         <v>709011.7089</v>
       </c>
       <c r="K61" s="1">
-        <v>644146.9109</v>
+        <v>644469.868</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3306</v>
+        <v>13.3372</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.8145</v>
@@ -7582,10 +7585,10 @@
         <v>701737.7826</v>
       </c>
       <c r="K62" s="1">
-        <v>657617.032</v>
+        <v>657939.9892</v>
       </c>
       <c r="L62" s="1">
-        <v>13.305</v>
+        <v>13.3116</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-32</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-31</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-30</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-29</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-28</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-27</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-26</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-25</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-24</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-23</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-22</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-21</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-20</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.962</v>
@@ -8403,10 +8406,10 @@
         <v>143490.5471</v>
       </c>
       <c r="K15" s="1">
-        <v>123484.1808</v>
+        <v>123493.7086</v>
       </c>
       <c r="L15" s="1">
-        <v>13.3996</v>
+        <v>13.4006</v>
       </c>
       <c r="M15" s="1">
         <v>0.5</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2659</v>
@@ -8456,10 +8459,10 @@
         <v>140001.4171</v>
       </c>
       <c r="K16" s="1">
-        <v>139781.648</v>
+        <v>139791.1759</v>
       </c>
       <c r="L16" s="1">
-        <v>13.4659</v>
+        <v>13.4668</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.4103</v>
@@ -8509,10 +8512,10 @@
         <v>151674.4799</v>
       </c>
       <c r="K17" s="1">
-        <v>162711.7932</v>
+        <v>162721.3211</v>
       </c>
       <c r="L17" s="1">
-        <v>13.2868</v>
+        <v>13.2876</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.3976</v>
@@ -8562,10 +8565,10 @@
         <v>161468.7739</v>
       </c>
       <c r="K18" s="1">
-        <v>172711.7932</v>
+        <v>172721.3211</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2343</v>
+        <v>13.235</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.9013</v>
@@ -8615,10 +8618,10 @@
         <v>184266.5408</v>
       </c>
       <c r="K19" s="1">
-        <v>182711.7932</v>
+        <v>182721.3211</v>
       </c>
       <c r="L19" s="1">
-        <v>13.1871</v>
+        <v>13.1878</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.3527</v>
@@ -8668,10 +8671,10 @@
         <v>200801.486</v>
       </c>
       <c r="K20" s="1">
-        <v>192213.7689</v>
+        <v>192223.2967</v>
       </c>
       <c r="L20" s="1">
-        <v>13.174</v>
+        <v>13.1747</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8804</v>
@@ -8721,10 +8724,10 @@
         <v>218639.7713</v>
       </c>
       <c r="K21" s="1">
-        <v>196597.6412</v>
+        <v>196607.1691</v>
       </c>
       <c r="L21" s="1">
-        <v>13.1786</v>
+        <v>13.1792</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6268</v>
@@ -8774,10 +8777,10 @@
         <v>246622.9492</v>
       </c>
       <c r="K22" s="1">
-        <v>199748.4078</v>
+        <v>199757.9357</v>
       </c>
       <c r="L22" s="1">
-        <v>13.1895</v>
+        <v>13.1901</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3636</v>
@@ -8827,10 +8830,10 @@
         <v>267746.9513</v>
       </c>
       <c r="K23" s="1">
-        <v>199513.75</v>
+        <v>199524.2145</v>
       </c>
       <c r="L23" s="1">
-        <v>13.1879</v>
+        <v>13.1886</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8711</v>
@@ -8880,10 +8883,10 @@
         <v>255214.9416</v>
       </c>
       <c r="K24" s="1">
-        <v>199493.8691</v>
+        <v>199504.413</v>
       </c>
       <c r="L24" s="1">
-        <v>13.1877</v>
+        <v>13.1884</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1252</v>
@@ -8933,10 +8936,10 @@
         <v>276340.5919</v>
       </c>
       <c r="K25" s="1">
-        <v>233320.6748</v>
+        <v>233331.2188</v>
       </c>
       <c r="L25" s="1">
-        <v>13.2863</v>
+        <v>13.2869</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1934</v>
@@ -8986,10 +8989,10 @@
         <v>287540.2566</v>
       </c>
       <c r="K26" s="1">
-        <v>240109.8258</v>
+        <v>240120.3697</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3094</v>
+        <v>13.3099</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1176</v>
@@ -9039,10 +9042,10 @@
         <v>296082.4919</v>
       </c>
       <c r="K27" s="1">
-        <v>250194.9355</v>
+        <v>250205.4794</v>
       </c>
       <c r="L27" s="1">
-        <v>13.3439</v>
+        <v>13.3444</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3311</v>
@@ -9092,10 +9095,10 @@
         <v>338270.3117</v>
       </c>
       <c r="K28" s="1">
-        <v>262991.4879</v>
+        <v>263002.0319</v>
       </c>
       <c r="L28" s="1">
-        <v>13.3808</v>
+        <v>13.3813</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3637</v>
@@ -9145,10 +9148,10 @@
         <v>348884.5898</v>
       </c>
       <c r="K29" s="1">
-        <v>250524.7418</v>
+        <v>250585.1144</v>
       </c>
       <c r="L29" s="1">
-        <v>13.2955</v>
+        <v>13.2987</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6447</v>
@@ -9198,10 +9201,10 @@
         <v>344812.781</v>
       </c>
       <c r="K30" s="1">
-        <v>261395.4098</v>
+        <v>261455.7824</v>
       </c>
       <c r="L30" s="1">
-        <v>13.3713</v>
+        <v>13.3744</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-4</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.486</v>
@@ -9251,10 +9254,10 @@
         <v>390184.3536</v>
       </c>
       <c r="K31" s="1">
-        <v>287024.8673</v>
+        <v>287085.2399</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4781</v>
+        <v>13.481</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-3</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.1958</v>
@@ -9304,10 +9307,10 @@
         <v>414980.3185</v>
       </c>
       <c r="K32" s="1">
-        <v>280675.9199</v>
+        <v>280761.6604</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4382</v>
+        <v>13.4423</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4264</v>
@@ -9357,10 +9360,10 @@
         <v>429743.0628</v>
       </c>
       <c r="K33" s="1">
-        <v>277481.1991</v>
+        <v>277579.6964</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4116</v>
+        <v>13.4164</v>
       </c>
       <c r="M33" s="1">
         <v>0.75</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17.107</v>
@@ -9410,10 +9413,10 @@
         <v>468019.4783</v>
       </c>
       <c r="K34" s="1">
-        <v>284418.2159</v>
+        <v>284516.7132</v>
       </c>
       <c r="L34" s="1">
-        <v>13.4725</v>
+        <v>13.4771</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.8894</v>
@@ -9463,10 +9466,10 @@
         <v>473467.338</v>
       </c>
       <c r="K35" s="1">
-        <v>281799.5519</v>
+        <v>281908.5139</v>
       </c>
       <c r="L35" s="1">
-        <v>13.4457</v>
+        <v>13.4509</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4004</v>
@@ -9516,10 +9519,10 @@
         <v>491563.508</v>
       </c>
       <c r="K36" s="1">
-        <v>298206.3126</v>
+        <v>298315.2746</v>
       </c>
       <c r="L36" s="1">
-        <v>13.5995</v>
+        <v>13.6044</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3877</v>
@@ -9569,10 +9572,10 @@
         <v>477918.2093</v>
       </c>
       <c r="K37" s="1">
-        <v>320845.6055</v>
+        <v>320954.5674</v>
       </c>
       <c r="L37" s="1">
-        <v>13.767</v>
+        <v>13.7717</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6367</v>
@@ -9622,10 +9625,10 @@
         <v>468577.8105</v>
       </c>
       <c r="K38" s="1">
-        <v>356449.908</v>
+        <v>356558.8699</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9159</v>
+        <v>13.9201</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.0061</v>
@@ -9675,10 +9678,10 @@
         <v>433298.2752</v>
       </c>
       <c r="K39" s="1">
-        <v>387739.889</v>
+        <v>387848.851</v>
       </c>
       <c r="L39" s="1">
-        <v>13.9736</v>
+        <v>13.9775</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.835</v>
@@ -9728,10 +9731,10 @@
         <v>482152.7142</v>
       </c>
       <c r="K40" s="1">
-        <v>445150.5561</v>
+        <v>445259.518</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8446</v>
+        <v>13.848</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.4216</v>
@@ -9781,10 +9784,10 @@
         <v>510363.216</v>
       </c>
       <c r="K41" s="1">
-        <v>430581.8051</v>
+        <v>430748.9887</v>
       </c>
       <c r="L41" s="1">
-        <v>13.844</v>
+        <v>13.8493</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.2404</v>
@@ -9834,10 +9837,10 @@
         <v>484193.1413</v>
       </c>
       <c r="K42" s="1">
-        <v>424494.2022</v>
+        <v>424685.6932</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8356</v>
+        <v>13.8419</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.382</v>
@@ -9887,10 +9890,10 @@
         <v>475623.2414</v>
       </c>
       <c r="K43" s="1">
-        <v>473066.26</v>
+        <v>473257.751</v>
       </c>
       <c r="L43" s="1">
-        <v>13.775</v>
+        <v>13.7806</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>11.9583</v>
@@ -9940,10 +9943,10 @@
         <v>469509.5362</v>
       </c>
       <c r="K44" s="1">
-        <v>514923.6735</v>
+        <v>515115.1646</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6526</v>
+        <v>13.6577</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.2036</v>
@@ -9993,10 +9996,10 @@
         <v>489208.9614</v>
       </c>
       <c r="K45" s="1">
-        <v>543313.8594</v>
+        <v>543505.3504</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5539</v>
+        <v>13.5587</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.9136</v>
@@ -10046,10 +10049,10 @@
         <v>542183.9647</v>
       </c>
       <c r="K46" s="1">
-        <v>545903.2763</v>
+        <v>546094.7672999999</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5469</v>
+        <v>13.5517</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.4338</v>
@@ -10099,10 +10102,10 @@
         <v>572453.7343</v>
       </c>
       <c r="K47" s="1">
-        <v>529738.0278</v>
+        <v>529994.1073</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5664</v>
+        <v>13.5729</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.9657</v>
@@ -10152,10 +10155,10 @@
         <v>564484.5922</v>
       </c>
       <c r="K48" s="1">
-        <v>521953.3525</v>
+        <v>522240.546</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5679</v>
+        <v>13.5754</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3568</v>
@@ -10205,10 +10208,10 @@
         <v>600684.9433</v>
       </c>
       <c r="K49" s="1">
-        <v>552623.808</v>
+        <v>552911.0015</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5346</v>
+        <v>13.5417</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.2487</v>
@@ -10258,10 +10261,10 @@
         <v>606306.0143</v>
       </c>
       <c r="K50" s="1">
-        <v>549316.1813000001</v>
+        <v>549616.5968000001</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5356</v>
+        <v>13.543</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3991</v>
@@ -10311,10 +10314,10 @@
         <v>622523.0135999999</v>
       </c>
       <c r="K51" s="1">
-        <v>566468.4808</v>
+        <v>566768.8963</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5275</v>
+        <v>13.5347</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.5985</v>
@@ -10364,10 +10367,10 @@
         <v>656001.7807999999</v>
       </c>
       <c r="K52" s="1">
-        <v>572977.4041</v>
+        <v>573277.8196</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5264</v>
+        <v>13.5334</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.6955</v>
@@ -10417,10 +10420,10 @@
         <v>670115.9908</v>
       </c>
       <c r="K53" s="1">
-        <v>577397.655</v>
+        <v>577698.0705</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5271</v>
+        <v>13.5341</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3398</v>
@@ -10470,10 +10473,10 @@
         <v>664700.2193</v>
       </c>
       <c r="K54" s="1">
-        <v>586197.3568</v>
+        <v>586497.7723</v>
       </c>
       <c r="L54" s="1">
-        <v>13.53</v>
+        <v>13.5369</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.8469</v>
@@ -10523,10 +10526,10 @@
         <v>663925.382</v>
       </c>
       <c r="K55" s="1">
-        <v>614652.5702</v>
+        <v>614952.9857</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5223</v>
+        <v>13.529</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.129</v>
@@ -10576,10 +10579,10 @@
         <v>687355.8883</v>
       </c>
       <c r="K56" s="1">
-        <v>650179.2354</v>
+        <v>650479.6509</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4852</v>
+        <v>13.4914</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.716</v>
@@ -10629,10 +10632,10 @@
         <v>677501.8644</v>
       </c>
       <c r="K57" s="1">
-        <v>649695.7733999999</v>
+        <v>649998.122</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4854</v>
+        <v>13.4917</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.4613</v>
@@ -10682,10 +10685,10 @@
         <v>687469.4571999999</v>
       </c>
       <c r="K58" s="1">
-        <v>682838.4852</v>
+        <v>683140.8338</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4473</v>
+        <v>13.4533</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.6545</v>
@@ -10735,10 +10738,10 @@
         <v>707559.8652999999</v>
       </c>
       <c r="K59" s="1">
-        <v>709073.383</v>
+        <v>709375.7316000001</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4091</v>
+        <v>13.4148</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.2345</v>
@@ -10788,10 +10791,10 @@
         <v>695277.5138</v>
       </c>
       <c r="K60" s="1">
-        <v>712178.7273</v>
+        <v>712481.0759000001</v>
       </c>
       <c r="L60" s="1">
-        <v>13.4058</v>
+        <v>13.4114</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.1636</v>
@@ -10841,10 +10844,10 @@
         <v>715516.0522</v>
       </c>
       <c r="K61" s="1">
-        <v>747946.2487</v>
+        <v>748248.5973</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3461</v>
+        <v>13.3514</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.8145</v>
@@ -10894,10 +10897,10 @@
         <v>705422.1944</v>
       </c>
       <c r="K62" s="1">
-        <v>765399.5868</v>
+        <v>765701.9354</v>
       </c>
       <c r="L62" s="1">
-        <v>13.3172</v>
+        <v>13.3225</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-32</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-31</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-30</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-29</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-28</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-27</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-26</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-25</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-24</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-23</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-22</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-21</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-20</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.962</v>
@@ -11715,10 +11718,10 @@
         <v>143503.8551</v>
       </c>
       <c r="K15" s="1">
-        <v>127518.1561</v>
+        <v>127522.7445</v>
       </c>
       <c r="L15" s="1">
-        <v>13.4244</v>
+        <v>13.4249</v>
       </c>
       <c r="M15" s="1">
         <v>0.5</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2659</v>
@@ -11768,10 +11771,10 @@
         <v>139551.7636</v>
       </c>
       <c r="K16" s="1">
-        <v>144701.3305</v>
+        <v>144705.9189</v>
       </c>
       <c r="L16" s="1">
-        <v>13.4892</v>
+        <v>13.4896</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.4103</v>
@@ -11821,10 +11824,10 @@
         <v>151238.5089</v>
       </c>
       <c r="K17" s="1">
-        <v>162936.8531</v>
+        <v>162941.4415</v>
       </c>
       <c r="L17" s="1">
-        <v>13.3435</v>
+        <v>13.3439</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.3976</v>
@@ -11874,10 +11877,10 @@
         <v>161033.25</v>
       </c>
       <c r="K18" s="1">
-        <v>172936.8531</v>
+        <v>172941.4415</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2874</v>
+        <v>13.2878</v>
       </c>
       <c r="M18" s="1">
         <v>0.5</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.9013</v>
@@ -11927,10 +11930,10 @@
         <v>183797.4816</v>
       </c>
       <c r="K19" s="1">
-        <v>182936.8531</v>
+        <v>182941.4415</v>
       </c>
       <c r="L19" s="1">
-        <v>13.237</v>
+        <v>13.2373</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.3527</v>
@@ -11980,10 +11983,10 @@
         <v>200512.6134</v>
       </c>
       <c r="K20" s="1">
-        <v>198793.6489</v>
+        <v>198798.2372</v>
       </c>
       <c r="L20" s="1">
-        <v>13.2118</v>
+        <v>13.2121</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8804</v>
@@ -12033,10 +12036,10 @@
         <v>218705.9024</v>
       </c>
       <c r="K21" s="1">
-        <v>206420.483</v>
+        <v>206425.0714</v>
       </c>
       <c r="L21" s="1">
-        <v>13.2179</v>
+        <v>13.2182</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6268</v>
@@ -12086,10 +12089,10 @@
         <v>247559.897</v>
       </c>
       <c r="K22" s="1">
-        <v>210293.2684</v>
+        <v>210297.8568</v>
       </c>
       <c r="L22" s="1">
-        <v>13.23</v>
+        <v>13.2303</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3636</v>
@@ -12139,10 +12142,10 @@
         <v>269264.3371</v>
       </c>
       <c r="K23" s="1">
-        <v>210654.677</v>
+        <v>210659.2654</v>
       </c>
       <c r="L23" s="1">
-        <v>13.2322</v>
+        <v>13.2325</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8711</v>
@@ -12192,10 +12195,10 @@
         <v>255489.1685</v>
       </c>
       <c r="K24" s="1">
-        <v>211275.1926</v>
+        <v>211279.781</v>
       </c>
       <c r="L24" s="1">
-        <v>13.2376</v>
+        <v>13.2379</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1252</v>
@@ -12245,10 +12248,10 @@
         <v>277237.0604</v>
       </c>
       <c r="K25" s="1">
-        <v>247640.251</v>
+        <v>247644.8394</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3308</v>
+        <v>13.331</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1934</v>
@@ -12298,10 +12301,10 @@
         <v>288506.6803</v>
       </c>
       <c r="K26" s="1">
-        <v>255532.3656</v>
+        <v>255536.9539</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3548</v>
+        <v>13.355</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1176</v>
@@ -12351,10 +12354,10 @@
         <v>296953.6154</v>
       </c>
       <c r="K27" s="1">
-        <v>266974.2848</v>
+        <v>266978.8731</v>
       </c>
       <c r="L27" s="1">
-        <v>13.3897</v>
+        <v>13.39</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3311</v>
@@ -12404,10 +12407,10 @@
         <v>341246.1857</v>
       </c>
       <c r="K28" s="1">
-        <v>281363.4437</v>
+        <v>281368.0321</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4264</v>
+        <v>13.4267</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3637</v>
@@ -12457,10 +12460,10 @@
         <v>351902.875</v>
       </c>
       <c r="K29" s="1">
-        <v>268888.5285</v>
+        <v>268942.9782</v>
       </c>
       <c r="L29" s="1">
-        <v>13.3484</v>
+        <v>13.3511</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6447</v>
@@ -12510,10 +12513,10 @@
         <v>346816.2931</v>
       </c>
       <c r="K30" s="1">
-        <v>281363.7657</v>
+        <v>281418.2154</v>
       </c>
       <c r="L30" s="1">
-        <v>13.4276</v>
+        <v>13.4301</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-4</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.486</v>
@@ -12563,10 +12566,10 @@
         <v>394777.8149</v>
       </c>
       <c r="K31" s="1">
-        <v>309726.6856</v>
+        <v>309781.1353</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5328</v>
+        <v>13.5352</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-3</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.1958</v>
@@ -12616,10 +12619,10 @@
         <v>420721.9218</v>
       </c>
       <c r="K32" s="1">
-        <v>303832.1771</v>
+        <v>303910.179</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4993</v>
+        <v>13.5028</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4264</v>
@@ -12669,10 +12672,10 @@
         <v>435867.9658</v>
       </c>
       <c r="K33" s="1">
-        <v>301356.6745</v>
+        <v>301444.5613</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4807</v>
+        <v>13.4846</v>
       </c>
       <c r="M33" s="1">
         <v>0.75</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17.107</v>
@@ -12722,10 +12725,10 @@
         <v>476457.5246</v>
       </c>
       <c r="K34" s="1">
-        <v>309857.8383</v>
+        <v>309945.725</v>
       </c>
       <c r="L34" s="1">
-        <v>13.548</v>
+        <v>13.5518</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.8894</v>
@@ -12775,10 +12778,10 @@
         <v>481512.613</v>
       </c>
       <c r="K35" s="1">
-        <v>308065.9914</v>
+        <v>308161.0387</v>
       </c>
       <c r="L35" s="1">
-        <v>13.5315</v>
+        <v>13.5356</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4004</v>
@@ -12828,10 +12831,10 @@
         <v>500271.7231</v>
       </c>
       <c r="K36" s="1">
-        <v>326973.3295</v>
+        <v>327068.3768</v>
       </c>
       <c r="L36" s="1">
-        <v>13.6901</v>
+        <v>13.6941</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3877</v>
@@ -12881,10 +12884,10 @@
         <v>484443.4004</v>
       </c>
       <c r="K37" s="1">
-        <v>352757.5134</v>
+        <v>352852.5607</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8592</v>
+        <v>13.863</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6367</v>
@@ -12934,10 +12937,10 @@
         <v>473259.5349</v>
       </c>
       <c r="K38" s="1">
-        <v>392808.7918</v>
+        <v>392903.8391</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0036</v>
+        <v>14.007</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.0061</v>
@@ -12987,10 +12990,10 @@
         <v>433535.1917</v>
       </c>
       <c r="K39" s="1">
-        <v>428282.0707</v>
+        <v>428377.118</v>
       </c>
       <c r="L39" s="1">
-        <v>14.0562</v>
+        <v>14.0593</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.835</v>
@@ -13040,10 +13043,10 @@
         <v>485307.8077</v>
       </c>
       <c r="K40" s="1">
-        <v>476323.3958</v>
+        <v>476418.4431</v>
       </c>
       <c r="L40" s="1">
-        <v>13.9457</v>
+        <v>13.9485</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.4216</v>
@@ -13093,10 +13096,10 @@
         <v>515402.8875</v>
       </c>
       <c r="K41" s="1">
-        <v>478859.3923</v>
+        <v>478954.4395</v>
       </c>
       <c r="L41" s="1">
-        <v>13.9452</v>
+        <v>13.948</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.2404</v>
@@ -13146,10 +13149,10 @@
         <v>485360.543</v>
       </c>
       <c r="K42" s="1">
-        <v>473473.8988</v>
+        <v>473590.4501</v>
       </c>
       <c r="L42" s="1">
-        <v>13.9397</v>
+        <v>13.9431</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.382</v>
@@ -13199,10 +13202,10 @@
         <v>475298.5537</v>
       </c>
       <c r="K43" s="1">
-        <v>520013.0528</v>
+        <v>520129.604</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8767</v>
+        <v>13.8798</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>11.9583</v>
@@ -13252,10 +13255,10 @@
         <v>468608.3047</v>
       </c>
       <c r="K44" s="1">
-        <v>542240.76</v>
+        <v>542357.3112</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8097</v>
+        <v>13.8126</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.2036</v>
@@ -13305,10 +13308,10 @@
         <v>488384.7863</v>
       </c>
       <c r="K45" s="1">
-        <v>552240.76</v>
+        <v>552357.3112</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7716</v>
+        <v>13.7745</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.9136</v>
@@ -13358,10 +13361,10 @@
         <v>541775.0419</v>
       </c>
       <c r="K46" s="1">
-        <v>562240.76</v>
+        <v>562357.3112</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7408</v>
+        <v>13.7436</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.4338</v>
@@ -13411,10 +13414,10 @@
         <v>573898.0925</v>
       </c>
       <c r="K47" s="1">
-        <v>586676.7265</v>
+        <v>586793.2777</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7054</v>
+        <v>13.7081</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.9657</v>
@@ -13464,10 +13467,10 @@
         <v>563648.4225</v>
       </c>
       <c r="K48" s="1">
-        <v>593263.8161000001</v>
+        <v>593380.3673</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7027</v>
+        <v>13.7053</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3568</v>
@@ -13517,10 +13520,10 @@
         <v>602585.8331</v>
       </c>
       <c r="K49" s="1">
-        <v>606676.7265</v>
+        <v>606793.2777</v>
       </c>
       <c r="L49" s="1">
-        <v>13.6861</v>
+        <v>13.6887</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.2487</v>
@@ -13570,10 +13573,10 @@
         <v>607544.5843</v>
       </c>
       <c r="K50" s="1">
-        <v>628092.372</v>
+        <v>628208.9232</v>
       </c>
       <c r="L50" s="1">
-        <v>13.6756</v>
+        <v>13.6781</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3991</v>
@@ -13623,10 +13626,10 @@
         <v>624513.5402</v>
       </c>
       <c r="K51" s="1">
-        <v>638366.5198</v>
+        <v>638483.0710999999</v>
       </c>
       <c r="L51" s="1">
-        <v>13.6689</v>
+        <v>13.6714</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.5985</v>
@@ -13676,10 +13679,10 @@
         <v>660728.2725</v>
       </c>
       <c r="K52" s="1">
-        <v>648366.5198</v>
+        <v>648483.0710999999</v>
       </c>
       <c r="L52" s="1">
-        <v>13.6651</v>
+        <v>13.6676</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.6955</v>
@@ -13729,10 +13732,10 @@
         <v>675374.7484</v>
       </c>
       <c r="K53" s="1">
-        <v>665597.9134</v>
+        <v>665714.4645999999</v>
       </c>
       <c r="L53" s="1">
-        <v>13.6641</v>
+        <v>13.6665</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3398</v>
@@ -13782,10 +13785,10 @@
         <v>667725.5183</v>
       </c>
       <c r="K54" s="1">
-        <v>677541.1164000001</v>
+        <v>677657.6676</v>
       </c>
       <c r="L54" s="1">
-        <v>13.6651</v>
+        <v>13.6675</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.8469</v>
@@ -13835,10 +13838,10 @@
         <v>666003.7526</v>
       </c>
       <c r="K55" s="1">
-        <v>695179.2502</v>
+        <v>695295.8014</v>
       </c>
       <c r="L55" s="1">
-        <v>13.6574</v>
+        <v>13.6597</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.129</v>
@@ -13888,10 +13891,10 @@
         <v>690750.537</v>
       </c>
       <c r="K56" s="1">
-        <v>718566.3345999999</v>
+        <v>718682.8859</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6303</v>
+        <v>13.6325</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.716</v>
@@ -13941,10 +13944,10 @@
         <v>678672.1321</v>
       </c>
       <c r="K57" s="1">
-        <v>728566.3345999999</v>
+        <v>728682.8859</v>
       </c>
       <c r="L57" s="1">
-        <v>13.6236</v>
+        <v>13.6258</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.4613</v>
@@ -13994,10 +13997,10 @@
         <v>689277.6360000001</v>
       </c>
       <c r="K58" s="1">
-        <v>738566.3345999999</v>
+        <v>738682.8859</v>
       </c>
       <c r="L58" s="1">
-        <v>13.6108</v>
+        <v>13.613</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.6545</v>
@@ -14047,10 +14050,10 @@
         <v>710019.2701</v>
       </c>
       <c r="K59" s="1">
-        <v>763005.4845</v>
+        <v>763122.0358</v>
       </c>
       <c r="L59" s="1">
-        <v>13.5717</v>
+        <v>13.5737</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.2345</v>
@@ -14100,10 +14103,10 @@
         <v>696081.0721</v>
       </c>
       <c r="K60" s="1">
-        <v>773005.4845</v>
+        <v>773122.0358</v>
       </c>
       <c r="L60" s="1">
-        <v>13.5593</v>
+        <v>13.5614</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.1636</v>
@@ -14153,10 +14156,10 @@
         <v>717345.3426</v>
       </c>
       <c r="K61" s="1">
-        <v>783005.4845</v>
+        <v>783122.0358</v>
       </c>
       <c r="L61" s="1">
-        <v>13.541</v>
+        <v>13.543</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.8145</v>
@@ -14206,10 +14209,10 @@
         <v>706371.8565</v>
       </c>
       <c r="K62" s="1">
-        <v>808397.9407</v>
+        <v>808514.4919</v>
       </c>
       <c r="L62" s="1">
-        <v>13.4939</v>
+        <v>13.4959</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-32</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-31</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-30</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-29</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-28</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-27</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-26</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-25</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-24</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-23</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-22</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-21</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-20</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.962</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2659</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.4103</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.3976</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.9013</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.3527</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8804</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6268</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3636</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8711</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1252</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1934</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1176</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-7</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3311</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3637</v>
@@ -15769,10 +15772,10 @@
         <v>353144.0011</v>
       </c>
       <c r="K29" s="1">
-        <v>290562.7697</v>
+        <v>290575.2084</v>
       </c>
       <c r="L29" s="1">
-        <v>13.4773</v>
+        <v>13.4779</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6447</v>
@@ -15822,10 +15825,10 @@
         <v>346949.1815</v>
       </c>
       <c r="K30" s="1">
-        <v>304865.0732</v>
+        <v>304877.5119</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5565</v>
+        <v>13.5571</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-4</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.486</v>
@@ -15875,10 +15878,10 @@
         <v>397574.7549</v>
       </c>
       <c r="K31" s="1">
-        <v>333137.1508</v>
+        <v>333149.5895</v>
       </c>
       <c r="L31" s="1">
-        <v>13.6447</v>
+        <v>13.6452</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-3</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.1958</v>
@@ -15928,10 +15931,10 @@
         <v>424781.0971</v>
       </c>
       <c r="K32" s="1">
-        <v>331180.9622</v>
+        <v>331201.2171</v>
       </c>
       <c r="L32" s="1">
-        <v>13.635</v>
+        <v>13.6358</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4264</v>
@@ -15981,10 +15984,10 @@
         <v>440349.9907</v>
       </c>
       <c r="K33" s="1">
-        <v>329599.1058</v>
+        <v>329625.6771</v>
       </c>
       <c r="L33" s="1">
-        <v>13.6246</v>
+        <v>13.6257</v>
       </c>
       <c r="M33" s="1">
         <v>0.75</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>17.107</v>
@@ -16034,10 +16037,10 @@
         <v>483495.5033</v>
       </c>
       <c r="K34" s="1">
-        <v>339936.7408</v>
+        <v>339963.3121</v>
       </c>
       <c r="L34" s="1">
-        <v>13.6963</v>
+        <v>13.6974</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.8894</v>
@@ -16087,10 +16090,10 @@
         <v>488114.2778</v>
       </c>
       <c r="K35" s="1">
-        <v>339179.4736</v>
+        <v>339209.0711</v>
       </c>
       <c r="L35" s="1">
-        <v>13.6901</v>
+        <v>13.6913</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.4004</v>
@@ -16140,10 +16143,10 @@
         <v>507605.6185</v>
       </c>
       <c r="K36" s="1">
-        <v>360992.6239</v>
+        <v>361022.2214</v>
       </c>
       <c r="L36" s="1">
-        <v>13.85</v>
+        <v>13.8512</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3877</v>
@@ -16193,10 +16196,10 @@
         <v>489334.8361</v>
       </c>
       <c r="K37" s="1">
-        <v>390419.6582</v>
+        <v>390449.2557</v>
       </c>
       <c r="L37" s="1">
-        <v>14.0161</v>
+        <v>14.0172</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6367</v>
@@ -16246,10 +16249,10 @@
         <v>476081.1265</v>
       </c>
       <c r="K38" s="1">
-        <v>435592.078</v>
+        <v>435621.6755</v>
       </c>
       <c r="L38" s="1">
-        <v>14.1496</v>
+        <v>14.1505</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.0061</v>
@@ -16299,10 +16302,10 @@
         <v>431801.2833</v>
       </c>
       <c r="K39" s="1">
-        <v>471986.7491</v>
+        <v>472016.3466</v>
       </c>
       <c r="L39" s="1">
-        <v>14.1881</v>
+        <v>14.189</v>
       </c>
       <c r="M39" s="1">
         <v>0.5</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.835</v>
@@ -16352,10 +16355,10 @@
         <v>484883.8953</v>
       </c>
       <c r="K40" s="1">
-        <v>481986.7491</v>
+        <v>482016.3466</v>
       </c>
       <c r="L40" s="1">
-        <v>14.162</v>
+        <v>14.1629</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>14.4216</v>
@@ -16405,10 +16408,10 @@
         <v>515765.479</v>
       </c>
       <c r="K41" s="1">
-        <v>506956.6321</v>
+        <v>506986.2295</v>
       </c>
       <c r="L41" s="1">
-        <v>14.147</v>
+        <v>14.1478</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.2404</v>
@@ -16458,10 +16461,10 @@
         <v>482663.8903</v>
       </c>
       <c r="K42" s="1">
-        <v>516956.6321</v>
+        <v>516986.2295</v>
       </c>
       <c r="L42" s="1">
-        <v>14.1527</v>
+        <v>14.1535</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.382</v>
@@ -16511,10 +16514,10 @@
         <v>473835.2468</v>
       </c>
       <c r="K43" s="1">
-        <v>526956.6321</v>
+        <v>526986.2295</v>
       </c>
       <c r="L43" s="1">
-        <v>14.1348</v>
+        <v>14.1356</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>11.9583</v>
@@ -16564,10 +16567,10 @@
         <v>467191.5048</v>
       </c>
       <c r="K44" s="1">
-        <v>550106.3456999999</v>
+        <v>550135.9431</v>
       </c>
       <c r="L44" s="1">
-        <v>14.0525</v>
+        <v>14.0532</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.2036</v>
@@ -16617,10 +16620,10 @@
         <v>486938.9248</v>
       </c>
       <c r="K45" s="1">
-        <v>560106.3456999999</v>
+        <v>560135.9431</v>
       </c>
       <c r="L45" s="1">
-        <v>14.0092</v>
+        <v>14.01</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.9136</v>
@@ -16670,10 +16673,10 @@
         <v>540202.3209</v>
       </c>
       <c r="K46" s="1">
-        <v>570106.3456999999</v>
+        <v>570135.9431</v>
       </c>
       <c r="L46" s="1">
-        <v>13.9735</v>
+        <v>13.9743</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.4338</v>
@@ -16723,10 +16726,10 @@
         <v>572262.2023</v>
       </c>
       <c r="K47" s="1">
-        <v>594499.5745</v>
+        <v>594529.172</v>
       </c>
       <c r="L47" s="1">
-        <v>13.9279</v>
+        <v>13.9286</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.9657</v>
@@ -16776,10 +16779,10 @@
         <v>561937.455</v>
       </c>
       <c r="K48" s="1">
-        <v>604499.5745</v>
+        <v>604529.172</v>
       </c>
       <c r="L48" s="1">
-        <v>13.9199</v>
+        <v>13.9206</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3568</v>
@@ -16829,10 +16832,10 @@
         <v>600872.8159</v>
       </c>
       <c r="K49" s="1">
-        <v>614499.5745</v>
+        <v>614529.172</v>
       </c>
       <c r="L49" s="1">
-        <v>13.9037</v>
+        <v>13.9044</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.2487</v>
@@ -16882,10 +16885,10 @@
         <v>605841.9861</v>
       </c>
       <c r="K50" s="1">
-        <v>636224.8804</v>
+        <v>636254.4779000001</v>
       </c>
       <c r="L50" s="1">
-        <v>13.8853</v>
+        <v>13.8859</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3991</v>
@@ -16935,10 +16938,10 @@
         <v>622792.7209</v>
       </c>
       <c r="K51" s="1">
-        <v>646224.8804</v>
+        <v>646254.4779000001</v>
       </c>
       <c r="L51" s="1">
-        <v>13.8754</v>
+        <v>13.8761</v>
       </c>
       <c r="M51" s="1">
         <v>0.4</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.5985</v>
@@ -16988,10 +16991,10 @@
         <v>658935.518</v>
       </c>
       <c r="K52" s="1">
-        <v>656224.8804</v>
+        <v>656254.4779000001</v>
       </c>
       <c r="L52" s="1">
-        <v>13.8683</v>
+        <v>13.869</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.6955</v>
@@ -17041,10 +17044,10 @@
         <v>673599.2079</v>
       </c>
       <c r="K53" s="1">
-        <v>682991.284</v>
+        <v>683020.8815</v>
       </c>
       <c r="L53" s="1">
-        <v>13.8587</v>
+        <v>13.8593</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3398</v>
@@ -17094,10 +17097,10 @@
         <v>665805.2677</v>
       </c>
       <c r="K54" s="1">
-        <v>692991.284</v>
+        <v>693020.8815</v>
       </c>
       <c r="L54" s="1">
-        <v>13.8567</v>
+        <v>13.8573</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.8469</v>
@@ -17147,10 +17150,10 @@
         <v>664299.8029</v>
       </c>
       <c r="K55" s="1">
-        <v>702991.284</v>
+        <v>703020.8815</v>
       </c>
       <c r="L55" s="1">
-        <v>13.8495</v>
+        <v>13.8501</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.129</v>
@@ -17200,10 +17203,10 @@
         <v>689008.7025</v>
       </c>
       <c r="K56" s="1">
-        <v>726494.3316</v>
+        <v>726523.9291</v>
       </c>
       <c r="L56" s="1">
-        <v>13.8156</v>
+        <v>13.8161</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.716</v>
@@ -17253,10 +17256,10 @@
         <v>676985.081</v>
       </c>
       <c r="K57" s="1">
-        <v>736494.3316</v>
+        <v>736523.9291</v>
       </c>
       <c r="L57" s="1">
-        <v>13.8061</v>
+        <v>13.8067</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.4613</v>
@@ -17306,10 +17309,10 @@
         <v>687588.4845</v>
       </c>
       <c r="K58" s="1">
-        <v>746494.3316</v>
+        <v>746523.9291</v>
       </c>
       <c r="L58" s="1">
-        <v>13.7907</v>
+        <v>13.7913</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.6545</v>
@@ -17359,10 +17362,10 @@
         <v>708304.0775</v>
       </c>
       <c r="K59" s="1">
-        <v>770897.5885</v>
+        <v>770927.1859</v>
       </c>
       <c r="L59" s="1">
-        <v>13.7453</v>
+        <v>13.7458</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.2345</v>
@@ -17412,10 +17415,10 @@
         <v>694422.8118</v>
       </c>
       <c r="K60" s="1">
-        <v>780897.5885</v>
+        <v>780927.1859</v>
       </c>
       <c r="L60" s="1">
-        <v>13.7305</v>
+        <v>13.731</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.1636</v>
@@ -17465,10 +17468,10 @@
         <v>715660.015</v>
       </c>
       <c r="K61" s="1">
-        <v>790897.5885</v>
+        <v>790927.1859</v>
       </c>
       <c r="L61" s="1">
-        <v>13.7097</v>
+        <v>13.7102</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.8145</v>
@@ -17518,10 +17521,10 @@
         <v>704735.0404000001</v>
       </c>
       <c r="K62" s="1">
-        <v>816253.3755</v>
+        <v>816282.9729000001</v>
       </c>
       <c r="L62" s="1">
-        <v>13.6567</v>
+        <v>13.6572</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.5578</v>
       </c>
       <c r="D3" s="1">
-        <v>13.305</v>
+        <v>13.3116</v>
       </c>
       <c r="E3" s="1">
-        <v>13.3172</v>
+        <v>13.3225</v>
       </c>
       <c r="F3" s="1">
-        <v>13.4939</v>
+        <v>13.4959</v>
       </c>
       <c r="G3" s="1">
-        <v>13.6567</v>
+        <v>13.6572</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>216282.9729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8697</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0666</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9213</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8737</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8633</v>
       </c>
     </row>
   </sheetData>
